--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Il7-Il7r.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Il7-Il7r.xlsx
@@ -85,16 +85,16 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Il7</t>
+  </si>
+  <si>
+    <t>Il7r</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Il7</t>
-  </si>
-  <si>
-    <t>Il7r</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
 </sst>
 </file>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
         <v>24</v>
       </c>
-      <c r="C2" t="s">
-        <v>25</v>
-      </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.3907793333333334</v>
+        <v>0.1621203333333333</v>
       </c>
       <c r="H2">
-        <v>1.172338</v>
+        <v>0.486361</v>
       </c>
       <c r="I2">
-        <v>0.240538207054355</v>
+        <v>0.1481290732860657</v>
       </c>
       <c r="J2">
-        <v>0.2555286828896583</v>
+        <v>0.1532739727236171</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>31.464649</v>
+        <v>0.115185</v>
       </c>
       <c r="N2">
-        <v>94.393947</v>
+        <v>0.345555</v>
       </c>
       <c r="O2">
-        <v>0.5474848135431929</v>
+        <v>0.001968886112489112</v>
       </c>
       <c r="P2">
-        <v>0.547967202152804</v>
+        <v>0.001972895328246894</v>
       </c>
       <c r="Q2">
-        <v>12.29573455978733</v>
+        <v>0.018673830595</v>
       </c>
       <c r="R2">
-        <v>110.661611038086</v>
+        <v>0.168064475355</v>
       </c>
       <c r="S2">
-        <v>0.1316910154391675</v>
+        <v>0.0002916492752488166</v>
       </c>
       <c r="T2">
-        <v>0.1400213374328372</v>
+        <v>0.000302393504728266</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
         <v>24</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>25</v>
       </c>
-      <c r="D3" t="s">
-        <v>22</v>
-      </c>
       <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G3">
+        <v>0.1621203333333333</v>
+      </c>
+      <c r="H3">
+        <v>0.486361</v>
+      </c>
+      <c r="I3">
+        <v>0.1481290732860657</v>
+      </c>
+      <c r="J3">
+        <v>0.1532739727236171</v>
+      </c>
+      <c r="K3">
         <v>3</v>
       </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>0.3907793333333334</v>
-      </c>
-      <c r="H3">
-        <v>1.172338</v>
-      </c>
-      <c r="I3">
-        <v>0.240538207054355</v>
-      </c>
-      <c r="J3">
-        <v>0.2555286828896583</v>
-      </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
       <c r="L3">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.15178</v>
+        <v>29.737678</v>
       </c>
       <c r="N3">
-        <v>0.30356</v>
+        <v>89.21303400000001</v>
       </c>
       <c r="O3">
-        <v>0.002640971618643699</v>
+        <v>0.5083135931924556</v>
       </c>
       <c r="P3">
-        <v>0.001762199051656407</v>
+        <v>0.5093486651830572</v>
       </c>
       <c r="Q3">
-        <v>0.05931248721333334</v>
+        <v>4.821082269919334</v>
       </c>
       <c r="R3">
-        <v>0.35587492328</v>
+        <v>43.389740429274</v>
       </c>
       <c r="S3">
-        <v>0.0006352545780299931</v>
+        <v>0.07529602149830865</v>
       </c>
       <c r="T3">
-        <v>0.0004502924026591667</v>
+        <v>0.07806989341407868</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,93 +649,93 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
         <v>24</v>
       </c>
-      <c r="C4" t="s">
-        <v>25</v>
-      </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.3907793333333334</v>
+        <v>0.1621203333333333</v>
       </c>
       <c r="H4">
-        <v>1.172338</v>
+        <v>0.486361</v>
       </c>
       <c r="I4">
-        <v>0.240538207054355</v>
+        <v>0.1481290732860657</v>
       </c>
       <c r="J4">
-        <v>0.2555286828896583</v>
+        <v>0.1532739727236171</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M4">
-        <v>25.85484366666666</v>
+        <v>0.356658</v>
       </c>
       <c r="N4">
-        <v>77.56453099999999</v>
+        <v>0.713316</v>
       </c>
       <c r="O4">
-        <v>0.4498742148381634</v>
+        <v>0.00609644470293998</v>
       </c>
       <c r="P4">
-        <v>0.4502705987955396</v>
+        <v>0.004072572539722363</v>
       </c>
       <c r="Q4">
-        <v>10.10353857149756</v>
+        <v>0.057821513846</v>
       </c>
       <c r="R4">
-        <v>90.931847143478</v>
+        <v>0.346929083076</v>
       </c>
       <c r="S4">
-        <v>0.1082119370371575</v>
+        <v>0.0009030607041862433</v>
       </c>
       <c r="T4">
-        <v>0.115057053054162</v>
+        <v>0.0006242193723683574</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
         <v>24</v>
-      </c>
-      <c r="C5" t="s">
-        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>26</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.8221213333333334</v>
+        <v>0.1621203333333333</v>
       </c>
       <c r="H5">
-        <v>2.466364</v>
+        <v>0.486361</v>
       </c>
       <c r="I5">
-        <v>0.5060441395769882</v>
+        <v>0.1481290732860657</v>
       </c>
       <c r="J5">
-        <v>0.5375810938879991</v>
+        <v>0.1532739727236171</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>31.464649</v>
+        <v>28.293101</v>
       </c>
       <c r="N5">
-        <v>94.393947</v>
+        <v>84.87930299999999</v>
       </c>
       <c r="O5">
-        <v>0.5474848135431929</v>
+        <v>0.4836210759921153</v>
       </c>
       <c r="P5">
-        <v>0.547967202152804</v>
+        <v>0.4846058669489736</v>
       </c>
       <c r="Q5">
-        <v>25.86775918874533</v>
+        <v>4.586886965153666</v>
       </c>
       <c r="R5">
-        <v>232.809832698708</v>
+        <v>41.281982686383</v>
       </c>
       <c r="S5">
-        <v>0.2770514814009329</v>
+        <v>0.071638341808322</v>
       </c>
       <c r="T5">
-        <v>0.2945768079480507</v>
+        <v>0.07427746643244178</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,13 +773,13 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -794,40 +794,40 @@
         <v>2.466364</v>
       </c>
       <c r="I6">
-        <v>0.5060441395769882</v>
+        <v>0.7511708663032484</v>
       </c>
       <c r="J6">
-        <v>0.5375810938879991</v>
+        <v>0.777260940870076</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.15178</v>
+        <v>0.115185</v>
       </c>
       <c r="N6">
-        <v>0.30356</v>
+        <v>0.345555</v>
       </c>
       <c r="O6">
-        <v>0.002640971618643699</v>
+        <v>0.001968886112489112</v>
       </c>
       <c r="P6">
-        <v>0.001762199051656407</v>
+        <v>0.001972895328246894</v>
       </c>
       <c r="Q6">
-        <v>0.1247815759733333</v>
+        <v>0.09469604578</v>
       </c>
       <c r="R6">
-        <v>0.74868945584</v>
+        <v>0.85226441202</v>
       </c>
       <c r="S6">
-        <v>0.001336448210403796</v>
+        <v>0.001478969886770881</v>
       </c>
       <c r="T6">
-        <v>0.0009473248938378461</v>
+        <v>0.001533454479071358</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,13 +835,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
         <v>24</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>25</v>
-      </c>
-      <c r="D7" t="s">
-        <v>23</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -856,10 +856,10 @@
         <v>2.466364</v>
       </c>
       <c r="I7">
-        <v>0.5060441395769882</v>
+        <v>0.7511708663032484</v>
       </c>
       <c r="J7">
-        <v>0.5375810938879991</v>
+        <v>0.777260940870076</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,152 +868,152 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>25.85484366666666</v>
+        <v>29.737678</v>
       </c>
       <c r="N7">
-        <v>77.56453099999999</v>
+        <v>89.21303400000001</v>
       </c>
       <c r="O7">
-        <v>0.4498742148381634</v>
+        <v>0.5083135931924556</v>
       </c>
       <c r="P7">
-        <v>0.4502705987955396</v>
+        <v>0.5093486651830572</v>
       </c>
       <c r="Q7">
-        <v>21.25581854836489</v>
+        <v>24.44797948759734</v>
       </c>
       <c r="R7">
-        <v>191.302366935284</v>
+        <v>220.031815388376</v>
       </c>
       <c r="S7">
-        <v>0.2276562099656515</v>
+        <v>0.3818303621520939</v>
       </c>
       <c r="T7">
-        <v>0.2420569610461106</v>
+        <v>0.3958968227311004</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
         <v>22</v>
       </c>
-      <c r="B8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" t="s">
-        <v>26</v>
-      </c>
       <c r="E8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.28592</v>
+        <v>0.8221213333333334</v>
       </c>
       <c r="H8">
-        <v>0.57184</v>
+        <v>2.466364</v>
       </c>
       <c r="I8">
-        <v>0.1759936575313123</v>
+        <v>0.7511708663032484</v>
       </c>
       <c r="J8">
-        <v>0.1246411205843555</v>
+        <v>0.777260940870076</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M8">
-        <v>31.464649</v>
+        <v>0.356658</v>
       </c>
       <c r="N8">
-        <v>94.393947</v>
+        <v>0.713316</v>
       </c>
       <c r="O8">
-        <v>0.5474848135431929</v>
+        <v>0.00609644470293998</v>
       </c>
       <c r="P8">
-        <v>0.547967202152804</v>
+        <v>0.004072572539722363</v>
       </c>
       <c r="Q8">
-        <v>8.99637244208</v>
+        <v>0.293216150504</v>
       </c>
       <c r="R8">
-        <v>53.97823465248</v>
+        <v>1.759296903024</v>
       </c>
       <c r="S8">
-        <v>0.09635385477831504</v>
+        <v>0.004579471648877275</v>
       </c>
       <c r="T8">
-        <v>0.06829924611979957</v>
+        <v>0.003165451563986239</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
         <v>24</v>
       </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.28592</v>
+        <v>0.8221213333333334</v>
       </c>
       <c r="H9">
-        <v>0.57184</v>
+        <v>2.466364</v>
       </c>
       <c r="I9">
-        <v>0.1759936575313123</v>
+        <v>0.7511708663032484</v>
       </c>
       <c r="J9">
-        <v>0.1246411205843555</v>
+        <v>0.777260940870076</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.15178</v>
+        <v>28.293101</v>
       </c>
       <c r="N9">
-        <v>0.30356</v>
+        <v>84.87930299999999</v>
       </c>
       <c r="O9">
-        <v>0.002640971618643699</v>
+        <v>0.4836210759921153</v>
       </c>
       <c r="P9">
-        <v>0.001762199051656407</v>
+        <v>0.4846058669489736</v>
       </c>
       <c r="Q9">
-        <v>0.0433969376</v>
+        <v>23.26036191825467</v>
       </c>
       <c r="R9">
-        <v>0.1735877504</v>
+        <v>209.343257264292</v>
       </c>
       <c r="S9">
-        <v>0.0004647942546014945</v>
+        <v>0.3632820626155063</v>
       </c>
       <c r="T9">
-        <v>0.0002196424644911432</v>
+        <v>0.3766652120959181</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,93 +1021,93 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
         <v>24</v>
       </c>
-      <c r="C10" t="s">
-        <v>25</v>
-      </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G10">
-        <v>0.28592</v>
+        <v>0.1102115</v>
       </c>
       <c r="H10">
-        <v>0.57184</v>
+        <v>0.220423</v>
       </c>
       <c r="I10">
-        <v>0.1759936575313123</v>
+        <v>0.1007000604106861</v>
       </c>
       <c r="J10">
-        <v>0.1246411205843555</v>
+        <v>0.06946508640630693</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>25.85484366666666</v>
+        <v>0.115185</v>
       </c>
       <c r="N10">
-        <v>77.56453099999999</v>
+        <v>0.345555</v>
       </c>
       <c r="O10">
-        <v>0.4498742148381634</v>
+        <v>0.001968886112489112</v>
       </c>
       <c r="P10">
-        <v>0.4502705987955396</v>
+        <v>0.001972895328246894</v>
       </c>
       <c r="Q10">
-        <v>7.392416901173333</v>
+        <v>0.0126947116275</v>
       </c>
       <c r="R10">
-        <v>44.35450140704</v>
+        <v>0.076168269765</v>
       </c>
       <c r="S10">
-        <v>0.07917500849839572</v>
+        <v>0.0001982669504694144</v>
       </c>
       <c r="T10">
-        <v>0.05612223200006482</v>
+        <v>0.0001370473444472698</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
         <v>23</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>24</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>25</v>
       </c>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
       <c r="E11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="G11">
-        <v>0.1257833333333333</v>
+        <v>0.1102115</v>
       </c>
       <c r="H11">
-        <v>0.37735</v>
+        <v>0.220423</v>
       </c>
       <c r="I11">
-        <v>0.07742399583734456</v>
+        <v>0.1007000604106861</v>
       </c>
       <c r="J11">
-        <v>0.08224910263798713</v>
+        <v>0.06946508640630693</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,60 +1116,60 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>31.464649</v>
+        <v>29.737678</v>
       </c>
       <c r="N11">
-        <v>94.393947</v>
+        <v>89.21303400000001</v>
       </c>
       <c r="O11">
-        <v>0.5474848135431929</v>
+        <v>0.5083135931924556</v>
       </c>
       <c r="P11">
-        <v>0.547967202152804</v>
+        <v>0.5093486651830572</v>
       </c>
       <c r="Q11">
-        <v>3.957728433383333</v>
+        <v>3.277434098897</v>
       </c>
       <c r="R11">
-        <v>35.61955590045</v>
+        <v>19.664604593382</v>
       </c>
       <c r="S11">
-        <v>0.04238846192477753</v>
+        <v>0.05118720954205318</v>
       </c>
       <c r="T11">
-        <v>0.04506981065211662</v>
+        <v>0.03538194903787817</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
         <v>23</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>24</v>
-      </c>
-      <c r="C12" t="s">
-        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>22</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="G12">
-        <v>0.1257833333333333</v>
+        <v>0.1102115</v>
       </c>
       <c r="H12">
-        <v>0.37735</v>
+        <v>0.220423</v>
       </c>
       <c r="I12">
-        <v>0.07742399583734456</v>
+        <v>0.1007000604106861</v>
       </c>
       <c r="J12">
-        <v>0.08224910263798713</v>
+        <v>0.06946508640630693</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -1178,60 +1178,60 @@
         <v>0.5</v>
       </c>
       <c r="M12">
-        <v>0.15178</v>
+        <v>0.356658</v>
       </c>
       <c r="N12">
-        <v>0.30356</v>
+        <v>0.713316</v>
       </c>
       <c r="O12">
-        <v>0.002640971618643699</v>
+        <v>0.00609644470293998</v>
       </c>
       <c r="P12">
-        <v>0.001762199051656407</v>
+        <v>0.004072572539722363</v>
       </c>
       <c r="Q12">
-        <v>0.01909139433333333</v>
+        <v>0.039307813167</v>
       </c>
       <c r="R12">
-        <v>0.114548366</v>
+        <v>0.157231252668</v>
       </c>
       <c r="S12">
-        <v>0.0002044745756084149</v>
+        <v>0.0006139123498764631</v>
       </c>
       <c r="T12">
-        <v>0.0001449392906682514</v>
+        <v>0.0002829016033677668</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
         <v>23</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>24</v>
       </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="G13">
-        <v>0.1257833333333333</v>
+        <v>0.1102115</v>
       </c>
       <c r="H13">
-        <v>0.37735</v>
+        <v>0.220423</v>
       </c>
       <c r="I13">
-        <v>0.07742399583734456</v>
+        <v>0.1007000604106861</v>
       </c>
       <c r="J13">
-        <v>0.08224910263798713</v>
+        <v>0.06946508640630693</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1240,28 +1240,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>25.85484366666666</v>
+        <v>28.293101</v>
       </c>
       <c r="N13">
-        <v>77.56453099999999</v>
+        <v>84.87930299999999</v>
       </c>
       <c r="O13">
-        <v>0.4498742148381634</v>
+        <v>0.4836210759921153</v>
       </c>
       <c r="P13">
-        <v>0.4502705987955396</v>
+        <v>0.4846058669489736</v>
       </c>
       <c r="Q13">
-        <v>3.252108419205555</v>
+        <v>3.1182251008615</v>
       </c>
       <c r="R13">
-        <v>29.26897577285</v>
+        <v>18.709350605169</v>
       </c>
       <c r="S13">
-        <v>0.03483105933695861</v>
+        <v>0.04870067156828701</v>
       </c>
       <c r="T13">
-        <v>0.03703435269520226</v>
+        <v>0.03366318842061373</v>
       </c>
     </row>
   </sheetData>
